--- a/data/input/Scenario_Component_HotWaterTank.xlsx
+++ b/data/input/Scenario_Component_HotWaterTank.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\Flex\data\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView windowWidth="30240" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_HotWaterTank" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>ID_HotWaterTank</t>
   </si>
@@ -72,22 +67,378 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -95,32 +446,358 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.399975585192419"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.399975585192419"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L2" totalsRowShown="0">
-  <autoFilter ref="A1:L2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L3" totalsRowShown="0">
+  <autoFilter ref="A1:L3"/>
   <tableColumns count="12">
     <tableColumn id="1" name="ID_HotWaterTank"/>
     <tableColumn id="2" name="size"/>
@@ -182,7 +859,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -217,7 +894,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -391,38 +1068,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.4296875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.4296875" customWidth="1"/>
     <col min="9" max="9" width="19.140625" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.859375" customWidth="1"/>
     <col min="11" max="11" width="26.140625" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +1132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -498,8 +1170,47 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/data/input/Scenario_Component_HotWaterTank.xlsx
+++ b/data/input/Scenario_Component_HotWaterTank.xlsx
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -88,7 +88,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,30 +109,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,7 +134,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,6 +149,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,9 +170,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,23 +201,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,36 +232,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,187 +253,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,21 +499,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -538,35 +523,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -581,151 +537,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
@@ -1174,8 +1174,8 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
+      <c r="B3">
+        <v>1e-6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>

--- a/data/input/Scenario_Component_HotWaterTank.xlsx
+++ b/data/input/Scenario_Component_HotWaterTank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14680"/>
+    <workbookView windowWidth="30240" windowHeight="14660"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_HotWaterTank" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -101,11 +101,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,6 +184,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -124,92 +215,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,16 +231,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,19 +259,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,157 +427,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,17 +484,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,8 +496,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,39 +513,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,6 +534,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -584,142 +584,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>

--- a/data/input/Scenario_Component_HotWaterTank.xlsx
+++ b/data/input/Scenario_Component_HotWaterTank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14660"/>
+    <workbookView windowHeight="18400"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_HotWaterTank" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -102,9 +102,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,13 +133,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -132,37 +141,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,8 +155,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -186,7 +172,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +193,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -208,8 +215,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,21 +233,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,19 +259,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,157 +433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,16 +488,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,6 +504,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,38 +565,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,142 +584,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,8 +796,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L3" totalsRowShown="0">
-  <autoFilter ref="A1:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L4" totalsRowShown="0">
+  <autoFilter ref="A1:L4"/>
   <tableColumns count="12">
     <tableColumn id="1" name="ID_HotWaterTank"/>
     <tableColumn id="2" name="size"/>
@@ -1074,15 +1074,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.5"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="14.4296875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
@@ -1171,40 +1172,78 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>1.9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>0.2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>55</v>
+      </c>
+      <c r="J3">
+        <v>28</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>1e-6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I4" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J4" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K4" s="2">
         <v>0</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
